--- a/pareto/case_studies/small_case_study_Li.xlsx
+++ b/pareto/case_studies/small_case_study_Li.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arshb11/main/Grad_Research/CM/project-pareto/pareto/case_studies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6494931A-4C0D-334A-B571-A99678A962E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8EE863-B27A-C04A-AE8C-54D2C0210B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" tabRatio="834" firstSheet="51" activeTab="59" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" tabRatio="834" firstSheet="76" activeTab="84" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -97,10 +97,11 @@
     <sheet name="PadWaterQuality" sheetId="99" r:id="rId82"/>
     <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId83"/>
     <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId84"/>
-    <sheet name="MinResidualQuality" sheetId="115" r:id="rId85"/>
-    <sheet name="ComponentPrice" sheetId="116" r:id="rId86"/>
-    <sheet name="ComponentTreatment" sheetId="117" r:id="rId87"/>
-    <sheet name="TimeDiscretization" sheetId="121" r:id="rId88"/>
+    <sheet name="MinTreatmentFlow" sheetId="126" r:id="rId85"/>
+    <sheet name="MinResidualQuality" sheetId="115" r:id="rId86"/>
+    <sheet name="ComponentPrice" sheetId="116" r:id="rId87"/>
+    <sheet name="ComponentTreatment" sheetId="117" r:id="rId88"/>
+    <sheet name="TimeDiscretization" sheetId="121" r:id="rId89"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="70" hidden="1">#REF!</definedName>
@@ -127,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="272">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -940,6 +941,9 @@
   </si>
   <si>
     <t>List of all Water Quality Components [-]</t>
+  </si>
+  <si>
+    <t>Minimum inlet flow required at each treatment site [bbl/day]</t>
   </si>
 </sst>
 </file>
@@ -11452,7 +11456,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -13657,7 +13661,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14253,6 +14257,50 @@
 </file>
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA33A89C-4E67-524F-A6A9-4B65A9363710}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="32">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA27A092-1D7B-5147-B304-542475644386}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -14305,7 +14353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6983D6E2-EC48-E04B-A292-F019B326FE69}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -14358,7 +14406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E5B931-13ED-B04C-BD6B-B3248EDC4A69}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -14411,7 +14459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FC4242-36AD-5141-9744-7F50F9387918}">
   <dimension ref="A1:A3"/>
   <sheetViews>

--- a/pareto/case_studies/small_case_study_Li.xlsx
+++ b/pareto/case_studies/small_case_study_Li.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arshb11/main/Grad_Research/CM/project-pareto/pareto/case_studies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9816B5A4-2AC7-1545-AA43-5570E59FBD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EA9594-653A-7E4B-A44B-503E8F484CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" tabRatio="834" firstSheet="1" activeTab="1" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" tabRatio="834" firstSheet="52" activeTab="61" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -783,9 +783,6 @@
     <t>Choice on whether the site will treat that componenet or not</t>
   </si>
   <si>
-    <t>Price earned based on each residuual treatment node [USD/mg]</t>
-  </si>
-  <si>
     <t>Freshwater Sources to Network Nodes Piping Arcs [-]</t>
   </si>
   <si>
@@ -799,6 +796,9 @@
   </si>
   <si>
     <t>Minimum inlet flow required at each treatment site [bbl/day]</t>
+  </si>
+  <si>
+    <t>Price earned based on each residuual treatment node [USD/bbl]</t>
   </si>
 </sst>
 </file>
@@ -3719,7 +3719,7 @@
   </sheetPr>
   <dimension ref="C3:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
@@ -4014,7 +4014,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9886,7 +9886,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -9925,7 +9925,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -10624,9 +10624,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10780,7 +10778,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -10918,14 +10916,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -10970,7 +10968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E5B931-13ED-B04C-BD6B-B3248EDC4A69}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -11084,7 +11082,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
